--- a/groupUpdate.xlsx
+++ b/groupUpdate.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌面\apt a2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809600CA-B9A9-49D5-8350-1CC1F3874DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>Assignment 2 | Weekly Update Tracking Sheet</t>
   </si>
@@ -276,11 +283,27 @@
 4.fixed fatal bugs in gameplay logic, added a lot of user input checking.</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Joined github</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implemented player settings</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Finished calculatePlayerScore                            2. Wrote some test cases</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Changed the method of readFromFile                                           2. Helped Yuchen finished switch player</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -630,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -796,19 +819,23 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -816,39 +843,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="15"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="14"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="11"/>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2140,11 +2135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="16.05" customHeight="1"/>
@@ -2379,7 +2374,9 @@
       <c r="G13" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="46" t="s">
+        <v>57</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="17"/>
     </row>
@@ -2454,10 +2451,10 @@
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="31"/>
       <c r="G19" s="32"/>
       <c r="H19" s="29"/>
@@ -2533,7 +2530,9 @@
       <c r="G23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="I23" s="37"/>
       <c r="J23" s="35"/>
     </row>
@@ -2646,10 +2645,10 @@
       <c r="C31" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="31"/>
       <c r="G31" s="32"/>
       <c r="H31" s="29"/>
@@ -2725,7 +2724,9 @@
       <c r="G35" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="I35" s="17"/>
       <c r="J35" s="17"/>
     </row>
@@ -2740,7 +2741,7 @@
       <c r="F36" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="42" t="s">
         <v>50</v>
       </c>
       <c r="H36" s="26"/>
@@ -2807,10 +2808,10 @@
       <c r="C41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="43"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="31"/>
       <c r="G41" s="32"/>
       <c r="H41" s="29"/>
@@ -2886,7 +2887,9 @@
       <c r="G45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="46" t="s">
+        <v>59</v>
+      </c>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
     </row>
@@ -2901,7 +2904,7 @@
       <c r="F46" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="42" t="s">
         <v>51</v>
       </c>
       <c r="H46" s="26"/>
@@ -2917,7 +2920,7 @@
       <c r="F47" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="42" t="s">
         <v>52</v>
       </c>
       <c r="H47" s="26"/>
@@ -2970,10 +2973,10 @@
       <c r="C51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="43"/>
+      <c r="E51" s="44"/>
       <c r="F51" s="31"/>
       <c r="G51" s="32"/>
       <c r="H51" s="29"/>
@@ -3014,68 +3017,68 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I15 F19:I19 A1:H16 I1:I13 A18:I18 A17:C17 E17:I17 E20:I22 E23:E26 F23:F25 G23:I26 A19:D26 A27:I28 A29:C31 E29:I29 D30:I30 D31 F31:I31 A32:I33 A34:E40 A41:D52 E42:I43 E44:E50 E52:I52 A53:I53 G22:G26 J1:J26 G22:J22">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="21" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="23" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="24" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J33 J42:J43 J52:J53">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:J34">
-    <cfRule type="cellIs" dxfId="15" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:J44">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>$E$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>$E$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>$E$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>$E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 D31 D41 D51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19 D31 D41 D51" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Ahead,On-track,Behind,Way Behind"</formula1>
     </dataValidation>
   </dataValidations>
